--- a/data/trans_bre/P18_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_5_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>79,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>57,58%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38,37%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>64,84%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>33,65%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 8,29</t>
+          <t>-2,32; 8,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 5,46</t>
+          <t>-5,52; 4,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,21</t>
+          <t>5,33; 12,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,59</t>
+          <t>2,89; 11,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -2,73</t>
+          <t>-0,08; 9,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 35,05</t>
+          <t>2,22; 9,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 69,21</t>
+          <t>0,51; 7,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,32; 126,08</t>
+          <t>-7,7; 35,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,34; 107,8</t>
+          <t>-35,04; 53,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -3,03</t>
+          <t>42,05; 142,23</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18,16; 104,77</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 88,16</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 118,11</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,74; 82,69</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,46%</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>78,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-8,0%</t>
+          <t>40,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72,64%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>86,54%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>54,07%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 13,44</t>
+          <t>1,67; 13,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 10,3</t>
+          <t>0,38; 9,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 9,17</t>
+          <t>0,32; 9,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,21</t>
+          <t>3,21; 12,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 0,42</t>
+          <t>3,7; 16,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 68,71</t>
+          <t>-0,56; 15,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,5; 232,24</t>
+          <t>-3,98; 8,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 87,31</t>
+          <t>6,45; 71,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,9; 134,44</t>
+          <t>-0,18; 193,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 0,52</t>
+          <t>1,85; 85,47</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24,64; 141,86</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 182,41</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 155,17</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-30,56; 105,91</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,26</t>
+          <t>15,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>106,47%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>106,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-19,38%</t>
+          <t>52,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-22,17%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 24,4</t>
+          <t>5,94; 23,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 12,58</t>
+          <t>-3,5; 11,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 9,36</t>
+          <t>-6,94; 9,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 4,43</t>
+          <t>-17,0; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-8,78; 10,89</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>29,36; 244,89</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 264,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,36; 93,44</t>
+          <t>34,87; 232,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-62,45; 37,79</t>
+          <t>-35,62; 274,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-37,74; 100,24</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-62,74; 34,0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-51,77; 190,15</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>53,96%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>48,75%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>53,34%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>60,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,74%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 10,04</t>
+          <t>3,08; 10,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,15</t>
+          <t>-0,13; 5,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,24</t>
+          <t>3,88; 9,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 8,6</t>
+          <t>2,94; 8,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,24; -3,07</t>
+          <t>2,87; 9,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 47,19</t>
+          <t>2,86; 9,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 82,63</t>
+          <t>0,09; 6,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,92; 84,27</t>
+          <t>12,15; 47,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,92; 79,0</t>
+          <t>-3,21; 77,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -3,5</t>
+          <t>26,25; 84,26</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 82,69</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21,86; 96,21</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>24,33; 107,14</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 66,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P18_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_5_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,98</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,76</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13,22%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,02%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>79,98%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>57,58%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>38,37%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>64,84%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>33,65%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.491198077795177</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.550129043474262</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.816412419112982</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.072647190420439</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.712792634723624</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>5.838062010499743</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>3.873417024472033</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1321828809970952</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1473279193422205</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.7852328732831084</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.5749511274541051</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.3772040855636779</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.648428235956782</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.3406824265842857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 8,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; 4,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,33; 12,87</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 11,2</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 9,13</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 9,07</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 7,83</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 35,69</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-35,04; 53,53</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>42,05; 142,23</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>18,16; 104,77</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 88,16</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>20,19; 118,11</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>3,74; 82,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.321622530253766</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.747267474086531</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.147820083514388</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.970747910509643</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.06004742090581709</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2.216957434560005</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.5796465038101112</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.0769737372409022</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2591407144243483</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.3962288487274424</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.1877040342837746</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.003474182425108345</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.2018629729304804</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.04063436774876598</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.157281356230637</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.462318627520365</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.79627180822868</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.1736340670438</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.383581351733612</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>9.072392908900834</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>7.821453979679329</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3568993424194941</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.6735965050952192</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.401404602150608</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.081266041614205</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.9077264630726349</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1.181149297562721</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.8250288774133586</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,59</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,38</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,76</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>33,42%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>78,66%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>40,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>72,64%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>86,54%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>54,07%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>17,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 13,38</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 9,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 9,5</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 12,38</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,7; 16,11</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 15,06</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 8,25</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,45; 71,53</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 193,43</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 85,47</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>24,64; 141,86</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>23,15; 182,41</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 155,17</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-30,56; 105,91</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.594697489629324</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.492609252839623</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.074931922253684</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.952676987942533</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>9.570082411184847</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>6.971405903157338</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.865880743245146</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3342102705118785</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.7880007713855885</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3855448198669931</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.7546751915599376</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.8640839312650324</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.5407306306069588</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.1797116233261032</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>15,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,1</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>106,5%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>52,33%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>12,29%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-22,17%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>13,31%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.669705913991807</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.9405909462213049</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1273288233233576</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.485494606162911</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>3.589686435787793</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5570999184396443</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-3.980738543953187</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.06451606710262996</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.0276161836451309</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.007358271836306406</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.2715876161729188</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.2115376756293227</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.03854796578573139</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.3127246186199977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 23,7</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 11,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 9,87</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,0; 4,57</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 10,89</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>34,87; 232,34</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-35,62; 274,93</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-37,74; 100,24</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-62,74; 34,0</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-51,77; 190,15</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.37772976162667</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.871337339774243</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.275921321034167</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.53368387099687</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>15.82157484485887</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>15.05753777898189</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>8.177662567218277</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7152815034848623</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.910085125704984</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.8436164287469726</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.423994721509652</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.739536247212369</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>1.551739764491612</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1.054173545009367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,55</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,05</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,31</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,98</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>27,88%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>31,9%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>53,96%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>48,75%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>53,34%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>60,08%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>30,74%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>15.26727479539092</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.549075824286685</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.493229551920058</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.52763997798374</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.564717265732239</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>1.064993212262573</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.5241616768445458</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1036387035606723</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-0.1960325844856532</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.1353315254229281</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,08; 10,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 5,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 9,4</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 8,77</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 9,76</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 9,12</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 6,47</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>12,15; 47,96</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 77,45</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>26,25; 84,26</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>20,34; 82,69</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>21,86; 96,21</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>24,33; 107,14</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 66,31</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5.942579939575843</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.923540300670608</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.183674473717781</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-16.38726115255535</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-8.652304287535348</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>0.34869178918481</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4762617484216166</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3822143867994304</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.6067017073803802</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.51677016845375</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>23.69813769906218</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.54426219075159</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.566793823987911</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.991989245639713</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>10.77764181119405</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>2.323355837792677</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.529442307499476</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.9976094347823907</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.3831207009667066</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1.863319980405674</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.547633658582136</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.474507531404793</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.493944293619696</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.182379483727239</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6.249487418420155</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>5.975976582307226</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>3.450972996243213</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.278816223187907</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.3912584720407166</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5240678752101484</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.5029400687026324</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.5293083198839061</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.6008482418581965</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.3100802968712131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.081576121885558</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.5134160345110532</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.617138923485946</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.028509539136812</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.848139278762603</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>2.856149061453967</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.1097741001748684</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.121498848528204</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.0474318905085389</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2435421169158252</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.2086103513282166</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.2131403292439709</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.2432697973306897</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.002943542153463699</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.13311140056319</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.233242103249436</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.144377844180521</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.916405757303215</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>9.617914405423846</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>9.116675881111052</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>6.463906777169398</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.479566178557996</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.8596890316263937</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8279177292529561</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.8472294118739929</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.964219532042078</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>1.071375322414407</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.6888959881084619</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
